--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/125.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/125.xlsx
@@ -479,13 +479,13 @@
         <v>-0.159490661624737</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.280094747672005</v>
+        <v>-1.249785609352831</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06167877561633221</v>
+        <v>-0.1023367348038667</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2091523930866562</v>
+        <v>-0.1853273283392081</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1300677455415077</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.379090388379888</v>
+        <v>-1.335763461282172</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1558679380089433</v>
+        <v>-0.1959827593066598</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2112636226261102</v>
+        <v>-0.1873889162435712</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1017488971018822</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.514547810062033</v>
+        <v>-1.456951832971867</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1512468858012173</v>
+        <v>-0.2098006544390197</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2412398699805567</v>
+        <v>-0.1945635925622965</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.07832341166785763</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.684731015538351</v>
+        <v>-1.62515083309264</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1545407542943073</v>
+        <v>-0.2109803732964739</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2298398144867416</v>
+        <v>-0.1861055339716624</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.06042808209371522</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.784361777165779</v>
+        <v>-1.740788101940699</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1657218025744861</v>
+        <v>-0.2171373960958359</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.227530018406924</v>
+        <v>-0.1959082968540234</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.04638964339954598</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.654728487318268</v>
+        <v>-1.593210821055921</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07080115608832975</v>
+        <v>-0.1314778346503135</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2107263249286558</v>
+        <v>-0.1723372804743934</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.033435602175605</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.453739727171868</v>
+        <v>-1.408868069193971</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002323892496741518</v>
+        <v>-0.05274328129997097</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1863756428684805</v>
+        <v>-0.1522338783106715</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.01829622269892494</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.233811223190199</v>
+        <v>-1.172011767646307</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1367549003709781</v>
+        <v>0.0691575938580872</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1762837904641196</v>
+        <v>-0.1492071986182178</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.001737325050875266</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8733954318532051</v>
+        <v>-0.8069909846305866</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2172969932578656</v>
+        <v>0.1611435436815171</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1365763225837666</v>
+        <v>-0.1256420224309514</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.02834379112191873</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5094331837033937</v>
+        <v>-0.4561735494432263</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1895020577512367</v>
+        <v>0.1646286784745161</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07032664045878442</v>
+        <v>-0.06110643676469599</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.06386493830296419</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04539239108236632</v>
+        <v>0.06395982265445224</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1513086597411561</v>
+        <v>0.1484820066371568</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04534274944727542</v>
+        <v>0.04849061313127458</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1114792255108758</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5332134388801444</v>
+        <v>0.5600958443299554</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09790594076807949</v>
+        <v>0.08747681725471865</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1888158351485096</v>
+        <v>0.1896042611176003</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.173953615316344</v>
       </c>
       <c r="E14" t="n">
-        <v>1.107038619472899</v>
+        <v>1.123783911027531</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02536883964352377</v>
+        <v>-0.01969801285843439</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3032310437444789</v>
+        <v>0.303293825812388</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2525778213059933</v>
       </c>
       <c r="E15" t="n">
-        <v>1.731235459202005</v>
+        <v>1.759744358225088</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1590815038570333</v>
+        <v>-0.1617446315748508</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5262709102078735</v>
+        <v>0.5068391301659697</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3473872374644746</v>
       </c>
       <c r="E16" t="n">
-        <v>2.41313047938764</v>
+        <v>2.437913335682724</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3011120620444497</v>
+        <v>-0.3345851245766225</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6443961010028418</v>
+        <v>0.6346488199479353</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4570100233419548</v>
       </c>
       <c r="E17" t="n">
-        <v>3.074659288753189</v>
+        <v>3.079871660437733</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4325704120055963</v>
+        <v>-0.4738415913913124</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7868106518381672</v>
+        <v>0.7795396123454419</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5793526424682395</v>
       </c>
       <c r="E18" t="n">
-        <v>3.684207465986207</v>
+        <v>3.696146279225568</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.576258124776194</v>
+        <v>-0.6172635754093648</v>
       </c>
       <c r="G18" t="n">
-        <v>0.970540183501936</v>
+        <v>0.9503345779718506</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7121246214896311</v>
       </c>
       <c r="E19" t="n">
-        <v>4.194517634528252</v>
+        <v>4.216178908004974</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.738076714739696</v>
+        <v>-0.7764219577512312</v>
       </c>
       <c r="G19" t="n">
-        <v>1.082899644385906</v>
+        <v>1.074765716471453</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8515846354264502</v>
       </c>
       <c r="E20" t="n">
-        <v>4.663436899741126</v>
+        <v>4.709418194268114</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9184203948806476</v>
+        <v>-0.9592155985887275</v>
       </c>
       <c r="G20" t="n">
-        <v>1.263551394674039</v>
+        <v>1.232258183941593</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.9912832345803542</v>
       </c>
       <c r="E21" t="n">
-        <v>5.182348211586715</v>
+        <v>5.210201549016979</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.129626571567227</v>
+        <v>-1.15879395227931</v>
       </c>
       <c r="G21" t="n">
-        <v>1.42707094066345</v>
+        <v>1.39750642687064</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.121219017869133</v>
       </c>
       <c r="E22" t="n">
-        <v>5.573045400329155</v>
+        <v>5.599884004336238</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.332050558986991</v>
+        <v>-1.350368322335532</v>
       </c>
       <c r="G22" t="n">
-        <v>1.547139455467418</v>
+        <v>1.519135733083789</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.231150308513997</v>
       </c>
       <c r="E23" t="n">
-        <v>5.81708659853218</v>
+        <v>5.860042673414805</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.529361457992393</v>
+        <v>-1.547385751674661</v>
       </c>
       <c r="G23" t="n">
-        <v>1.688822522209198</v>
+        <v>1.663547629707477</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.31264338591053</v>
       </c>
       <c r="E24" t="n">
-        <v>6.097195364724923</v>
+        <v>6.15169165971809</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.680458914824352</v>
+        <v>-1.695303223764621</v>
       </c>
       <c r="G24" t="n">
-        <v>1.851921574348427</v>
+        <v>1.812557217769437</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.362269150275932</v>
       </c>
       <c r="E25" t="n">
-        <v>6.199442532531259</v>
+        <v>6.284982370033327</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.851998504977124</v>
+        <v>-1.856678689132532</v>
       </c>
       <c r="G25" t="n">
-        <v>1.865714648663241</v>
+        <v>1.853879498838335</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.380477821874144</v>
       </c>
       <c r="E26" t="n">
-        <v>6.240392501336975</v>
+        <v>6.355997649127035</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.890021807384614</v>
+        <v>-1.906594813264519</v>
       </c>
       <c r="G26" t="n">
-        <v>1.867627311662332</v>
+        <v>1.86129362304397</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.370463446951269</v>
       </c>
       <c r="E27" t="n">
-        <v>6.225594913935616</v>
+        <v>6.370945621481758</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.956123294628369</v>
+        <v>-1.976997602184091</v>
       </c>
       <c r="G27" t="n">
-        <v>1.961226614626216</v>
+        <v>1.959407394704943</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.335882236826391</v>
       </c>
       <c r="E28" t="n">
-        <v>6.315291508352501</v>
+        <v>6.462531518128279</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.035343313968939</v>
+        <v>-2.054572877350251</v>
       </c>
       <c r="G28" t="n">
-        <v>2.000052213459659</v>
+        <v>2.00559601606084</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.279552747422382</v>
       </c>
       <c r="E29" t="n">
-        <v>6.199138842528351</v>
+        <v>6.35900826829049</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.094472341554559</v>
+        <v>-2.109934980861328</v>
       </c>
       <c r="G29" t="n">
-        <v>2.012999919929838</v>
+        <v>2.019450412395472</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.205628573385007</v>
       </c>
       <c r="E30" t="n">
-        <v>6.167838331555449</v>
+        <v>6.329395572910679</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.227160782032296</v>
+        <v>-2.214487564603209</v>
       </c>
       <c r="G30" t="n">
-        <v>2.051956923091464</v>
+        <v>2.049455860711737</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.117899718284106</v>
       </c>
       <c r="E31" t="n">
-        <v>6.042407060113574</v>
+        <v>6.230908028938432</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.307718205424138</v>
+        <v>-2.257229742440515</v>
       </c>
       <c r="G31" t="n">
-        <v>1.970176709423486</v>
+        <v>1.987865192044845</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.021730395504008</v>
       </c>
       <c r="E32" t="n">
-        <v>5.83180388328854</v>
+        <v>6.034629383933304</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.34298055689172</v>
+        <v>-2.286280319305326</v>
       </c>
       <c r="G32" t="n">
-        <v>1.927322837907225</v>
+        <v>1.946410046599674</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.921892530378967</v>
       </c>
       <c r="E33" t="n">
-        <v>5.661814864208313</v>
+        <v>5.850293932311808</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.405704222877157</v>
+        <v>-2.329047317960178</v>
       </c>
       <c r="G33" t="n">
-        <v>1.925734305584316</v>
+        <v>1.930158251299769</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8222193780567864</v>
       </c>
       <c r="E34" t="n">
-        <v>5.427160315181739</v>
+        <v>5.612186369550235</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.488188909748999</v>
+        <v>-2.414034527259837</v>
       </c>
       <c r="G34" t="n">
-        <v>1.850163676446973</v>
+        <v>1.857151466610062</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7254144801501623</v>
       </c>
       <c r="E35" t="n">
-        <v>5.22773234644452</v>
+        <v>5.417973692593742</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.507995922150266</v>
+        <v>-2.426615031635152</v>
       </c>
       <c r="G35" t="n">
-        <v>1.792985273110806</v>
+        <v>1.796184238477987</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6341024640911737</v>
       </c>
       <c r="E36" t="n">
-        <v>5.030919323838119</v>
+        <v>5.226570148164157</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.47577923100032</v>
+        <v>-2.402765876094203</v>
       </c>
       <c r="G36" t="n">
-        <v>1.694434947070651</v>
+        <v>1.702957247777285</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5505067319136152</v>
       </c>
       <c r="E37" t="n">
-        <v>4.694769531772027</v>
+        <v>4.874371507482797</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.42190345644579</v>
+        <v>-2.344653041979856</v>
       </c>
       <c r="G37" t="n">
-        <v>1.602976074608039</v>
+        <v>1.610190172225219</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4758272783032936</v>
       </c>
       <c r="E38" t="n">
-        <v>4.505356032890351</v>
+        <v>4.669518000039761</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.294701876693687</v>
+        <v>-2.234511394145976</v>
       </c>
       <c r="G38" t="n">
-        <v>1.505636128435247</v>
+        <v>1.526085561996514</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4118676018729165</v>
       </c>
       <c r="E39" t="n">
-        <v>4.154665621886899</v>
+        <v>4.327774763737398</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.259313961090287</v>
+        <v>-2.203397769328712</v>
       </c>
       <c r="G39" t="n">
-        <v>1.40062362954473</v>
+        <v>1.414402103378635</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3588889840215367</v>
       </c>
       <c r="E40" t="n">
-        <v>3.81165798393781</v>
+        <v>4.002585552689759</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.182878253459081</v>
+        <v>-2.144776108454682</v>
       </c>
       <c r="G40" t="n">
-        <v>1.292429685864122</v>
+        <v>1.316243070226843</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3160140465629107</v>
       </c>
       <c r="E41" t="n">
-        <v>3.542515638955882</v>
+        <v>3.717684908662653</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.096640512969559</v>
+        <v>-2.058325200943887</v>
       </c>
       <c r="G41" t="n">
-        <v>1.1738314394877</v>
+        <v>1.20219141360551</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.281308203316774</v>
       </c>
       <c r="E42" t="n">
-        <v>3.206008135107518</v>
+        <v>3.41403724714828</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.981598213718544</v>
+        <v>-1.95259800851287</v>
       </c>
       <c r="G42" t="n">
-        <v>1.06661426797991</v>
+        <v>1.09894119276072</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2517497544843729</v>
       </c>
       <c r="E43" t="n">
-        <v>2.981816290700396</v>
+        <v>3.172494191228799</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.950378005390643</v>
+        <v>-1.913060636235108</v>
       </c>
       <c r="G43" t="n">
-        <v>0.952965584631668</v>
+        <v>1.0019428978412</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2247441983817743</v>
       </c>
       <c r="E44" t="n">
-        <v>2.729652844967645</v>
+        <v>2.920173060302231</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.914032298239608</v>
+        <v>-1.872229661348801</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8370947080890628</v>
+        <v>0.8813808867825055</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.198382466868758</v>
       </c>
       <c r="E45" t="n">
-        <v>2.457875113181628</v>
+        <v>2.655406479448756</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.767076267817511</v>
+        <v>-1.740846503864336</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7278159486769104</v>
+        <v>0.7651844195156275</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1718323571197718</v>
       </c>
       <c r="E46" t="n">
-        <v>2.255916881102864</v>
+        <v>2.448453422850994</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.680914449828716</v>
+        <v>-1.670228357851355</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7076702051185522</v>
+        <v>0.7412600714979977</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1449239065439709</v>
       </c>
       <c r="E47" t="n">
-        <v>1.943295764021766</v>
+        <v>2.142579187997985</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.632782504463819</v>
+        <v>-1.615023939534097</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5845983713915852</v>
+        <v>0.6185138284953033</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1177945705254287</v>
       </c>
       <c r="E48" t="n">
-        <v>1.806252730112893</v>
+        <v>1.986375942992118</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.564750103619838</v>
+        <v>-1.558693824138748</v>
       </c>
       <c r="G48" t="n">
-        <v>0.517084287619876</v>
+        <v>0.5503339627941398</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.09107847984664404</v>
       </c>
       <c r="E49" t="n">
-        <v>1.611625399498582</v>
+        <v>1.794943197600715</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.546471761569752</v>
+        <v>-1.527902869949575</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4371291340655338</v>
+        <v>0.4774673427211594</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.06550920355522791</v>
       </c>
       <c r="E50" t="n">
-        <v>1.506360312288338</v>
+        <v>1.692231734501469</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.422001201771694</v>
+        <v>-1.418127694186514</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3822795074343668</v>
+        <v>0.4190668791329024</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.04178284385203834</v>
       </c>
       <c r="E51" t="n">
-        <v>1.351806921625197</v>
+        <v>1.529724001839059</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.363754043232983</v>
+        <v>-1.359534504250256</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3103151970815679</v>
+        <v>0.347270474310558</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.02047766011903855</v>
       </c>
       <c r="E52" t="n">
-        <v>1.264144174198948</v>
+        <v>1.426438739840086</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.304712618532817</v>
+        <v>-1.303293451788453</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2431237839379496</v>
+        <v>0.2723962881125781</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.001504388706593033</v>
       </c>
       <c r="E53" t="n">
-        <v>1.040885300521917</v>
+        <v>1.213023510391962</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.247262646251741</v>
+        <v>-1.253409448714467</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2041083788526873</v>
+        <v>0.2306374526644984</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.01544754616879378</v>
       </c>
       <c r="E54" t="n">
-        <v>1.119136577954169</v>
+        <v>1.262586302885949</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.236418869080562</v>
+        <v>-1.244801005170469</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1160791593556201</v>
+        <v>0.1517744150821559</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.03046249086965376</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9351442376340365</v>
+        <v>1.089633386181177</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.210075221376297</v>
+        <v>-1.214277239781932</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06941894246635986</v>
+        <v>0.1029285062008054</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.04349627938519555</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9071565757794077</v>
+        <v>1.071441186968454</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.178995177665123</v>
+        <v>-1.179701840941123</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03676788700936863</v>
+        <v>0.06593526772145171</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.05479510258994545</v>
       </c>
       <c r="E57" t="n">
-        <v>0.8032318127166174</v>
+        <v>0.968621680310482</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.137951765781589</v>
+        <v>-1.145856466145768</v>
       </c>
       <c r="G57" t="n">
-        <v>0.00545131550746795</v>
+        <v>0.03941203410200429</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.0643025344060901</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7569541284271752</v>
+        <v>0.908910093536589</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.118933179349412</v>
+        <v>-1.12373381747232</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.083126882071781</v>
+        <v>-0.05057072974069882</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.07268179647379297</v>
       </c>
       <c r="E59" t="n">
-        <v>0.613786192776941</v>
+        <v>0.7972952571789826</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.061394144134791</v>
+        <v>-1.055588992925338</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1523433819174897</v>
+        <v>-0.122625563075134</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.07997460958011353</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6134898030144865</v>
+        <v>0.7946715507596197</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.003787946707988</v>
+        <v>-1.000631322735444</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1856134977650262</v>
+        <v>-0.1481793247622181</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.08669232238565135</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4820022520915218</v>
+        <v>0.6724071236269252</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.006829226881351</v>
+        <v>-0.9990822117109895</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.234054973325195</v>
+        <v>-0.1916055351301155</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.09289452811381955</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3907434062173645</v>
+        <v>0.601631292420126</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9966833526976266</v>
+        <v>-1.001088317787898</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3029969841298129</v>
+        <v>-0.2615170178670967</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.09875793189079432</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3466280531505582</v>
+        <v>0.5512800739570487</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.075920162591242</v>
+        <v>-1.065291012489426</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3391317143317122</v>
+        <v>-0.2919911416205431</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1044721256497652</v>
       </c>
       <c r="E64" t="n">
-        <v>0.2492209447655843</v>
+        <v>0.4692472719693434</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.033959840506617</v>
+        <v>-1.030969662016435</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.394771226980061</v>
+        <v>-0.3450113279938016</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1100235546721029</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1749877196795133</v>
+        <v>0.4082450026830871</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9633606751188174</v>
+        <v>-0.9754951348023596</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4173756915235094</v>
+        <v>-0.3737494545671575</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1156167300998736</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1225486324464365</v>
+        <v>0.3581186316260096</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.015233263692622</v>
+        <v>-1.017550360012894</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.441210976607594</v>
+        <v>-0.3964313016594241</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1209580192296709</v>
       </c>
       <c r="E67" t="n">
-        <v>0.158810386832245</v>
+        <v>0.3821904445008213</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9928478063628094</v>
+        <v>-1.012348208664986</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4613990615605885</v>
+        <v>-0.4140044404816012</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1261459353352608</v>
       </c>
       <c r="E68" t="n">
-        <v>0.05911830318499899</v>
+        <v>0.2863631081502107</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.046742561542522</v>
+        <v>-1.054512937482338</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.469562190436859</v>
+        <v>-0.4227311479209625</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1308030854602815</v>
       </c>
       <c r="E69" t="n">
-        <v>0.01090751522319376</v>
+        <v>0.2253316379021362</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.07672026894506</v>
+        <v>-1.090549844462147</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4763981355984936</v>
+        <v>-0.4333164965800506</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1347604872270441</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.02261664899216088</v>
+        <v>0.192343311336145</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.154755459259857</v>
+        <v>-1.167538180295763</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5183409371060278</v>
+        <v>-0.4713741101176767</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1373619872497752</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.08580607031859845</v>
+        <v>0.1300211585757072</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.29382357987082</v>
+        <v>-1.296482327444364</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5958213091462797</v>
+        <v>-0.5392444456235677</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1381790233210572</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.1327305559123131</v>
+        <v>0.07742292610072135</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.330917561668446</v>
+        <v>-1.3332215175559</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5759996962641032</v>
+        <v>-0.528171440902116</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1367170377634194</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.1285124769776779</v>
+        <v>0.06498769651045197</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.33780022836899</v>
+        <v>-1.332157142497628</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6069235148295494</v>
+        <v>-0.5529163359468366</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1324075287040738</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.07973519035660008</v>
+        <v>0.1187291466406194</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.370797315223526</v>
+        <v>-1.368627683760436</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6102524244768213</v>
+        <v>-0.5641514060063791</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1248733847994358</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.02293201937979715</v>
+        <v>0.1498033501594292</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.431665260085419</v>
+        <v>-1.434233484677327</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5965148319894613</v>
+        <v>-0.5330158804677511</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1140043055400299</v>
       </c>
       <c r="E76" t="n">
-        <v>0.01967218391291868</v>
+        <v>0.1928324274465995</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.341056135611716</v>
+        <v>-1.358652635203348</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5954095755846435</v>
+        <v>-0.5328362945525693</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.09940243943385368</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1509013063237925</v>
+        <v>0.3217517537776557</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.33939168078808</v>
+        <v>-1.353373101306622</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5016949288215777</v>
+        <v>-0.4549996707781357</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.08101410766383724</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2942459077930268</v>
+        <v>0.428636034320718</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.288979140305184</v>
+        <v>-1.30483088242818</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5262018360274802</v>
+        <v>-0.4738839327859488</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.05938852765481724</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3794148930800039</v>
+        <v>0.5067281665110607</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.24852996799465</v>
+        <v>-1.272541918897734</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4701768706831316</v>
+        <v>-0.4228012302293261</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.03508727724766306</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5162739609294217</v>
+        <v>0.6264783908312103</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.267017096921736</v>
+        <v>-1.28439312925164</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4276354494583248</v>
+        <v>-0.386870906760154</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.009352162184217559</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5320673011287811</v>
+        <v>0.6595557803307469</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.200425763543481</v>
+        <v>-1.233498772898745</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3398894792908939</v>
+        <v>-0.2987993458684504</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.01683678744769467</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6506772278899311</v>
+        <v>0.76297098660981</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.14280642568386</v>
+        <v>-1.165876645568309</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3123996938352649</v>
+        <v>-0.2808100933403643</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.04247567450170225</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7812186676499869</v>
+        <v>0.8886475461309581</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.111418311825505</v>
+        <v>-1.131940747791317</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2491226696233728</v>
+        <v>-0.21892741505529</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.06584066490234274</v>
       </c>
       <c r="E84" t="n">
-        <v>1.019155404784923</v>
+        <v>1.095441457486812</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.05086865744743</v>
+        <v>-1.061208718027246</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2180572263931084</v>
+        <v>-0.1881320807218437</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.08538708908506275</v>
       </c>
       <c r="E85" t="n">
-        <v>1.106399118409081</v>
+        <v>1.177179329760153</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9274084509282816</v>
+        <v>-0.9562546210603647</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1557803351234888</v>
+        <v>-0.1308704546444955</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.09926909688034025</v>
       </c>
       <c r="E86" t="n">
-        <v>1.310118168485481</v>
+        <v>1.362114861147013</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.8554718814892099</v>
+        <v>-0.8702709289386605</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.07834960471832773</v>
+        <v>-0.06088742955105969</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1059041039027604</v>
       </c>
       <c r="E87" t="n">
-        <v>1.424942190546905</v>
+        <v>1.458542277262987</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7816635303975934</v>
+        <v>-0.7800151361029575</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02511479127570566</v>
+        <v>-0.01480247160961752</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1033232907541165</v>
       </c>
       <c r="E88" t="n">
-        <v>1.526815586041969</v>
+        <v>1.545591804491054</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6525996593055372</v>
+        <v>-0.6507599987109922</v>
       </c>
       <c r="G88" t="n">
-        <v>0.006426627632194961</v>
+        <v>0.01970868511519139</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.08995124742565175</v>
       </c>
       <c r="E89" t="n">
-        <v>1.634651817940303</v>
+        <v>1.628185264945669</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5687403371561052</v>
+        <v>-0.5532974084985638</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06776178788317849</v>
+        <v>0.06916343405045085</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.06508210628836879</v>
       </c>
       <c r="E90" t="n">
-        <v>1.689882517123197</v>
+        <v>1.668174522107567</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4716588194954039</v>
+        <v>-0.4526679739769545</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07257264634272266</v>
+        <v>0.08128475330117486</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.02914329237437072</v>
       </c>
       <c r="E91" t="n">
-        <v>1.70425085038583</v>
+        <v>1.674410387503838</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2958544288690875</v>
+        <v>-0.2785236580300012</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1132729469248935</v>
+        <v>0.1132510462035299</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.01517245685695118</v>
       </c>
       <c r="E92" t="n">
-        <v>1.693820266824378</v>
+        <v>1.674495070293111</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1657802044981224</v>
+        <v>-0.1399271329524021</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1350524842969786</v>
+        <v>0.1369739075846144</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.06503337516252031</v>
       </c>
       <c r="E93" t="n">
-        <v>1.729915575727823</v>
+        <v>1.691246202040106</v>
       </c>
       <c r="F93" t="n">
-        <v>0.01394879539655658</v>
+        <v>0.0287566031345526</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1199351463637099</v>
+        <v>0.1206038483893461</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1155403115000286</v>
       </c>
       <c r="E94" t="n">
-        <v>1.684366455435744</v>
+        <v>1.634996389289758</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1003661218012606</v>
+        <v>0.1269287767191626</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0612674939748166</v>
+        <v>0.05868612895009002</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.162590655408426</v>
       </c>
       <c r="E95" t="n">
-        <v>1.621603368151852</v>
+        <v>1.566201843342321</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2092170871227769</v>
+        <v>0.2240964372172274</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03306520505082417</v>
+        <v>0.02251781764209973</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.201876587178722</v>
       </c>
       <c r="E96" t="n">
-        <v>1.515546934876335</v>
+        <v>1.454994360402079</v>
       </c>
       <c r="F96" t="n">
-        <v>0.255557553480128</v>
+        <v>0.2725948546529417</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01644693768010136</v>
+        <v>0.001788054847378025</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2308717391710682</v>
       </c>
       <c r="E97" t="n">
-        <v>1.365159061416557</v>
+        <v>1.31533784041048</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3166503457480208</v>
+        <v>0.3304989018902897</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03210696158306742</v>
+        <v>-0.03460218377043039</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2483162113272178</v>
       </c>
       <c r="E98" t="n">
-        <v>1.262729387598858</v>
+        <v>1.201884803506419</v>
       </c>
       <c r="F98" t="n">
-        <v>0.344375198946286</v>
+        <v>0.348310028551285</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.02798816591861398</v>
+        <v>-0.04470133641524585</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2577788809224632</v>
       </c>
       <c r="E99" t="n">
-        <v>1.092963755876539</v>
+        <v>1.047054003706007</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3478997550377396</v>
+        <v>0.3532814923008291</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.0900110088204155</v>
+        <v>-0.09198499383932407</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2626971008046677</v>
       </c>
       <c r="E100" t="n">
-        <v>1.002877328619382</v>
+        <v>0.9576333583783032</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3132601140809307</v>
+        <v>0.3093603256301136</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1443525387159464</v>
+        <v>-0.137242104513221</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2667253875720719</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8761947959635977</v>
+        <v>0.8356258997096087</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3579259052780097</v>
+        <v>0.3508972337683752</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.07969430901005464</v>
+        <v>-0.09277633990459658</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2757343566612737</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7294161613845462</v>
+        <v>0.6933894747413741</v>
       </c>
       <c r="F102" t="n">
-        <v>0.292739138163209</v>
+        <v>0.2887269260093919</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1871786693184803</v>
+        <v>-0.1924786438884789</v>
       </c>
     </row>
   </sheetData>
